--- a/src/main/resources/static/template/观众模板.xlsx
+++ b/src/main/resources/static/template/观众模板.xlsx
@@ -523,7 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -618,7 +620,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>13388888888</v>
+        <v>13366666666</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>

--- a/src/main/resources/static/template/观众模板.xlsx
+++ b/src/main/resources/static/template/观众模板.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>13366666666</v>
+        <v>13366666660</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
